--- a/pilot project 파일/프로젝트요구사항 명세서.xlsx
+++ b/pilot project 파일/프로젝트요구사항 명세서.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01.coding\HealthKiosk\pilot project 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9E1FD7-1F6D-440E-9B1B-3A039DEFB454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED3966-086E-44B9-8A6F-17E4AFF795BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="75" windowWidth="28830" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'요구사항 정의서'!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'요구사항 정의서'!$A$1:$I$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="116">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 작성된 내용을 참고하여 제시된 요구사항에 따라 실제 구현된 내용을 기능 별로 자세히 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 기능 구현한 인원 별로 팀장이 취합/정리하여 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능 담당자 이름 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,6 +487,10 @@
   </si>
   <si>
     <t>김규민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,27 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,25 +919,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,8 +1247,8 @@
   </sheetPr>
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="33" zoomScalePageLayoutView="23" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F1" s="25"/>
     </row>
@@ -1282,14 +1278,14 @@
         <v>22</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="F2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1320,45 +1316,45 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="12" t="s">
@@ -1366,19 +1362,19 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="13" t="s">
@@ -1386,14 +1382,14 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>10</v>
@@ -1410,10 +1406,10 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
@@ -1430,19 +1426,19 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="13" t="s">
@@ -1450,19 +1446,19 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="13" t="s">
@@ -1470,23 +1466,23 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="G12" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17" t="s">
@@ -1494,21 +1490,21 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17" t="s">
@@ -1516,19 +1512,19 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="13" t="s">
@@ -1565,230 +1561,230 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="E18" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="36" t="s">
+      <c r="G22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="40" t="s">
+    <row r="23" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="G23" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="34" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="C24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="36" t="s">
+      <c r="D24" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="36" t="s">
+    <row r="25" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="35" t="s">
+    <row r="26" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="C26" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="43" t="s">
+      <c r="D26" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="36" t="s">
+      <c r="G26" s="28"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1889,10 +1885,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="9" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
